--- a/medicine/Sexualité et sexologie/Prostitution_étudiante/Prostitution_étudiante.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_étudiante/Prostitution_étudiante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A9tudiante</t>
+          <t>Prostitution_étudiante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostitution étudiante est une forme de prostitution exercée de manière régulière ou occasionnelle par des étudiants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostitution_%C3%A9tudiante</t>
+          <t>Prostitution_étudiante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allemagne
-À Berlin, en 2011, 4 % des étudiants seraient au moins partiellement des travailleurs du sexe, et 33 % l'envisageaient pour payer leurs études[1].
-Angleterre
-10 % de la population étudiante se prostituerait dans ce pays[2]. Ron Roberts, psychologue de la santé à l'université Kingston, estime dans son étude sur le sujet que le phénomène a progressé de 50 % en 6 ans[3].
-Belgique
-En septembre 2017, une campagne publicitaire pour un site de rencontres ciblant les universités et invitant de jeunes étudiantes à « améliorer leur style de vie » en sortant avec un « sugar daddy » entraîne le dépôt d'une plainte auprès du jury d’éthique publicitaire[4]. Après l'ouverture  d'une enquête pour « incitation à la débauche d’une personne majeure dans un lieu public » par le parquet de Bruxelles, la campagne est interdite sur le territoire de la ville de Bruxelles[5].
-France
-Le sujet a longtemps été tabou en France.  D’après un tract du syndicat SUD Étudiant sur la précarité étudiante, 40 000 étudiants se prostitueraient.  Cette donnée approximative a été fortement reprise par la presse écrite, et notamment le Figaro du 29 octobre 2006[6] sans que ce soit une volonté du syndicat.  Ce chiffre a été contesté, aucune étude sérieuse n'ayant pour le moment évalué l'ampleur du phénomène[7].
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Berlin, en 2011, 4 % des étudiants seraient au moins partiellement des travailleurs du sexe, et 33 % l'envisageaient pour payer leurs études.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prostitution_étudiante</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prostitution_%C3%A9tudiante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Situation actuelle</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Angleterre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 % de la population étudiante se prostituerait dans ce pays. Ron Roberts, psychologue de la santé à l'université Kingston, estime dans son étude sur le sujet que le phénomène a progressé de 50 % en 6 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prostitution_étudiante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prostitution_%C3%A9tudiante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Situation actuelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2017, une campagne publicitaire pour un site de rencontres ciblant les universités et invitant de jeunes étudiantes à « améliorer leur style de vie » en sortant avec un « sugar daddy » entraîne le dépôt d'une plainte auprès du jury d’éthique publicitaire. Après l'ouverture  d'une enquête pour « incitation à la débauche d’une personne majeure dans un lieu public » par le parquet de Bruxelles, la campagne est interdite sur le territoire de la ville de Bruxelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prostitution_étudiante</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prostitution_%C3%A9tudiante</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation actuelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sujet a longtemps été tabou en France.  D’après un tract du syndicat SUD Étudiant sur la précarité étudiante, 40 000 étudiants se prostitueraient.  Cette donnée approximative a été fortement reprise par la presse écrite, et notamment le Figaro du 29 octobre 2006 sans que ce soit une volonté du syndicat.  Ce chiffre a été contesté, aucune étude sérieuse n'ayant pour le moment évalué l'ampleur du phénomène.
 </t>
         </is>
       </c>
